--- a/results/04-2022/contributions-comparison-04-2022.xlsx
+++ b/results/04-2022/contributions-comparison-04-2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve">2024 Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024 Q2</t>
   </si>
   <si>
     <t xml:space="preserve">historical</t>
@@ -533,19 +530,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>0.0158</v>
@@ -565,17 +559,16 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -607,19 +600,16 @@
       <c r="O3" t="n">
         <v>0.0052</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.0052</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
         <v>268.7603</v>
@@ -639,17 +629,16 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -681,19 +670,16 @@
       <c r="O5" t="n">
         <v>284.262</v>
       </c>
-      <c r="P5" t="n">
-        <v>285.94</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
         <v>0.0427</v>
@@ -713,17 +699,16 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -755,19 +740,16 @@
       <c r="O7" t="n">
         <v>-0.0068</v>
       </c>
-      <c r="P7" t="n">
-        <v>-0.018</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>0.0215</v>
@@ -787,61 +769,57 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>-32.7491</v>
+        <v>-0.0195</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6459</v>
+        <v>-0.3299</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0175</v>
+        <v>-0.3325</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1367</v>
+        <v>-0.0741</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1041</v>
+        <v>-0.1013</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3481</v>
+        <v>-0.5253</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1137</v>
+        <v>-0.2696</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0295</v>
+        <v>-0.1041</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.2232</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-0.3641</v>
+        <v>-0.3594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>-0.024</v>
@@ -861,17 +839,16 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -903,19 +880,16 @@
       <c r="O11" t="n">
         <v>-0.0199</v>
       </c>
-      <c r="P11" t="n">
-        <v>-0.0021</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>-0.2563</v>
@@ -935,61 +909,57 @@
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>-5.3199</v>
+        <v>0.035</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.1648</v>
+        <v>0.0961</v>
       </c>
       <c r="I13" t="n">
-        <v>-5.1361</v>
+        <v>0.0265</v>
       </c>
       <c r="J13" t="n">
-        <v>-5.1039</v>
+        <v>-0.0182</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0674</v>
+        <v>-0.1833</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1159</v>
+        <v>-0.1982</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0642</v>
+        <v>-0.1366</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0538</v>
+        <v>-0.0727</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.0024</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>-0.3402</v>
@@ -1009,61 +979,57 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="P14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>7.6763</v>
+        <v>-0.3492</v>
       </c>
       <c r="H15" t="n">
-        <v>7.3901</v>
+        <v>-0.6728</v>
       </c>
       <c r="I15" t="n">
-        <v>3.513</v>
+        <v>-0.6135</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5657</v>
+        <v>-0.3932</v>
       </c>
       <c r="K15" t="n">
-        <v>3.635</v>
+        <v>-0.164</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6718</v>
+        <v>-0.0606</v>
       </c>
       <c r="M15" t="n">
-        <v>3.6962</v>
+        <v>0.0279</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7056</v>
+        <v>0.0134</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>-0.0224</v>
@@ -1083,61 +1049,57 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>-0.0397</v>
+        <v>0.0908</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0535</v>
+        <v>0.0001</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2059</v>
+        <v>-0.1887</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0634</v>
+        <v>-0.1233</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0283</v>
+        <v>-0.0615</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0343</v>
+        <v>-0.051</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0217</v>
+        <v>-0.0227</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0319</v>
+        <v>-0.0328</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0647</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-0.0142</v>
+        <v>-0.0657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
         <v>0.1231</v>
@@ -1157,17 +1119,16 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1199,19 +1160,16 @@
       <c r="O19" t="n">
         <v>-0.0543</v>
       </c>
-      <c r="P19" t="n">
-        <v>-0.0522</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>0.0102</v>
@@ -1231,17 +1189,16 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1273,19 +1230,16 @@
       <c r="O21" t="n">
         <v>0.0055</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.0054</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
         <v>-0.1684</v>
@@ -1305,61 +1259,57 @@
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="P22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>-7.9542</v>
+        <v>-0.7896</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2532</v>
+        <v>-0.0738</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.0975</v>
+        <v>-0.9231</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.725</v>
+        <v>-0.5551</v>
       </c>
       <c r="K23" t="n">
-        <v>6.411</v>
+        <v>-0.1269</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.177</v>
+        <v>-0.0269</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0505</v>
+        <v>0.1978</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0744</v>
+        <v>0.07</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0745</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-0.074</v>
+        <v>-0.0117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
         <v>0.3833</v>
@@ -1379,61 +1329,57 @@
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>-0.2751</v>
+        <v>-0.1262</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.163</v>
+        <v>-0.1489</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1575</v>
+        <v>-0.145</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0453</v>
+        <v>-0.0587</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0367</v>
+        <v>-0.0475</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6114</v>
+        <v>-0.6157</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6479</v>
+        <v>-0.6505</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3129</v>
+        <v>-0.3144</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1799</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-0.3304</v>
+        <v>-0.1876</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
         <v>0.1724</v>
@@ -1453,61 +1399,57 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
-      <c r="P26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>-1.0879</v>
+        <v>-1</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.48</v>
+        <v>-1.494</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.0322</v>
+        <v>-1.0372</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4232</v>
+        <v>-0.4282</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.3904</v>
+        <v>-0.4163</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3008</v>
+        <v>-0.3179</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.1495</v>
+        <v>-0.1497</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0069</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="P27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
         <v>-2.2613</v>
@@ -1527,61 +1469,57 @@
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
-      <c r="P28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>-73.9633</v>
+        <v>-2.1353</v>
       </c>
       <c r="H29" t="n">
-        <v>1.934</v>
+        <v>-3.4856</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.6928</v>
+        <v>-3.2049</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.4016</v>
+        <v>-2.0618</v>
       </c>
       <c r="K29" t="n">
-        <v>10.7529</v>
+        <v>-2.0979</v>
       </c>
       <c r="L29" t="n">
-        <v>2.911</v>
+        <v>-3.0913</v>
       </c>
       <c r="M29" t="n">
-        <v>4.7215</v>
+        <v>-1.2189</v>
       </c>
       <c r="N29" t="n">
-        <v>5.198</v>
+        <v>-0.6377</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.3809</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-0.4953</v>
+        <v>-0.5157</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
         <v>22741</v>
@@ -1601,17 +1539,16 @@
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
-      <c r="P30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1643,19 +1580,16 @@
       <c r="O31" t="n">
         <v>26078.1</v>
       </c>
-      <c r="P31" t="n">
-        <v>26293.7</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="n">
         <v>0.5458</v>
@@ -1675,61 +1609,57 @@
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
-      <c r="P32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>-6.3841</v>
+        <v>-0.0125</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.7039</v>
+        <v>-0.1076</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0169</v>
+        <v>-0.0575</v>
       </c>
       <c r="J33" t="n">
-        <v>3.0568</v>
+        <v>0.1042</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1055</v>
+        <v>0.0911</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3467</v>
+        <v>-0.3608</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.1123</v>
+        <v>-0.1266</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0284</v>
+        <v>-0.0416</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.2212</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-0.3622</v>
+        <v>-0.234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
         <v>0.0048</v>
@@ -1749,17 +1679,16 @@
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
-      <c r="P34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1791,19 +1720,16 @@
       <c r="O35" t="n">
         <v>0.0049</v>
       </c>
-      <c r="P35" t="n">
-        <v>0.0048</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
         <v>-1.0494</v>
@@ -1823,17 +1749,16 @@
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
-      <c r="P36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1865,19 +1790,16 @@
       <c r="O37" t="n">
         <v>-0.0111</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
         <v>-0.2711</v>
@@ -1897,17 +1819,16 @@
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
-      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1939,19 +1860,16 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
         <v>-0.7397</v>
@@ -1971,61 +1889,57 @@
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
-      <c r="P40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>-36.956</v>
+        <v>0.0734</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7039</v>
+        <v>0.3554</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0169</v>
+        <v>0.2012</v>
       </c>
       <c r="J41" t="n">
-        <v>-3.0568</v>
+        <v>-0.1085</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1055</v>
+        <v>-0.1431</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3467</v>
+        <v>0.3118</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1123</v>
+        <v>0.0762</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0284</v>
+        <v>0.0023</v>
       </c>
       <c r="O41" t="n">
-        <v>0.2212</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.3622</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
         <v>-0.014</v>
@@ -2045,17 +1959,16 @@
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
-      <c r="P42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2087,19 +2000,16 @@
       <c r="O43" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="P43" t="n">
-        <v>-0.0013</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" t="n">
         <v>0.1964</v>
@@ -2119,61 +2029,57 @@
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
-      <c r="P44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>-0.7484</v>
+        <v>0.1796</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.8223</v>
+        <v>0.1017</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.9602</v>
+        <v>0.0151</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.9093</v>
+        <v>0.0302</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0249</v>
+        <v>-0.0065</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0241</v>
+        <v>-0.0311</v>
       </c>
       <c r="M45" t="n">
-        <v>0.012</v>
+        <v>-0.078</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0017</v>
+        <v>-0.0603</v>
       </c>
       <c r="O45" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.0003</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
         <v>-0.0802</v>
@@ -2193,61 +2099,57 @@
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
-      <c r="P46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>4.2624</v>
+        <v>-0.0509</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2267</v>
+        <v>-0.1049</v>
       </c>
       <c r="I47" t="n">
-        <v>2.0944</v>
+        <v>-0.0801</v>
       </c>
       <c r="J47" t="n">
-        <v>2.0469</v>
+        <v>-0.0857</v>
       </c>
       <c r="K47" t="n">
-        <v>2.05</v>
+        <v>-0.0572</v>
       </c>
       <c r="L47" t="n">
-        <v>2.0617</v>
+        <v>-0.0228</v>
       </c>
       <c r="M47" t="n">
-        <v>2.0501</v>
+        <v>-0.0151</v>
       </c>
       <c r="N47" t="n">
-        <v>2.0466</v>
+        <v>0.0017</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
         <v>0.0178</v>
@@ -2267,17 +2169,16 @@
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
-      <c r="P48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2309,19 +2210,16 @@
       <c r="O49" t="n">
         <v>0.0081</v>
       </c>
-      <c r="P49" t="n">
-        <v>0.0081</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
         <v>155</v>
@@ -2341,61 +2239,57 @@
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
-      <c r="P50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>158.1846</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>160.092</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>162.0224</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>163.976</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>165.9532</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>167.9542</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>169.9794</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>172.029</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
+        <v>174.1033</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
         <v>0.0069</v>
@@ -2415,17 +2309,16 @@
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
-      <c r="P52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2457,19 +2350,16 @@
       <c r="O53" t="n">
         <v>-0.0014</v>
       </c>
-      <c r="P53" t="n">
-        <v>-0.0045</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
         <v>-0.2286</v>
@@ -2489,17 +2379,16 @@
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
-      <c r="P54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2531,19 +2420,16 @@
       <c r="O55" t="n">
         <v>-0.0011</v>
       </c>
-      <c r="P55" t="n">
-        <v>0.0007</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2563,17 +2449,16 @@
       <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
-      <c r="P56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2605,19 +2490,16 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2637,17 +2519,16 @@
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
-      <c r="P58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
         <v>19</v>
       </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -2679,19 +2560,16 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2711,17 +2589,16 @@
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
-      <c r="P60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -2753,19 +2630,16 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2785,61 +2659,57 @@
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
-      <c r="P62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>-32.7296</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.316</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.315</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>3.2108</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2054</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1772</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1559</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1336</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.1303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2859,17 +2729,16 @@
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
-      <c r="P64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -2901,19 +2770,16 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2933,61 +2799,57 @@
       <c r="M66"/>
       <c r="N66"/>
       <c r="O66"/>
-      <c r="P66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>-5.355</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-5.2609</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-5.1625</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-5.0857</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1159</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0823</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0724</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0189</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.0347</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-0.0874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -3007,61 +2869,57 @@
       <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
-      <c r="P68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>8.0255</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>8.0629</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>4.1265</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.9589</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>3.799</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>3.7324</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>3.6683</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>3.6922</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0054</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-0.0394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3081,61 +2939,57 @@
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
-      <c r="P70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>-0.1306</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0536</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.0172</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0599</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0332</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0167</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.0438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3155,17 +3009,16 @@
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
-      <c r="P72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -3197,19 +3050,16 @@
       <c r="O73" t="n">
         <v>0</v>
       </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3229,17 +3079,16 @@
       <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
-      <c r="P74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -3271,19 +3120,16 @@
       <c r="O75" t="n">
         <v>0</v>
       </c>
-      <c r="P75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3303,61 +3149,57 @@
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
-      <c r="P76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>-7.1645</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.1794</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1744</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.1699</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>6.538</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.1501</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.1472</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.1444</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.0628</v>
-      </c>
-      <c r="P77" t="n">
-        <v>-0.0616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3377,61 +3219,57 @@
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
-      <c r="P78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>-0.1489</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.014</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.0124</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0134</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0109</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0026</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0078</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.0029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -3451,61 +3289,57 @@
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="P80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>-0.0879</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0051</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0259</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0171</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="P81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -3525,61 +3359,57 @@
       <c r="M82"/>
       <c r="N82"/>
       <c r="O82"/>
-      <c r="P82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>-71.828</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>5.4196</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.4878</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.3398</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>12.8508</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>6.0023</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>5.9404</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>5.8358</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1348</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0.5537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3599,17 +3429,16 @@
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
-      <c r="P84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -3641,19 +3470,16 @@
       <c r="O85" t="n">
         <v>0</v>
       </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -3673,61 +3499,57 @@
       <c r="M86"/>
       <c r="N86"/>
       <c r="O86"/>
-      <c r="P86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>-6.3716</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.5963</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0406</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.9525</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0144</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0141</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0143</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0133</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0.0122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3747,17 +3569,16 @@
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88"/>
-      <c r="P88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -3789,19 +3610,16 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3821,17 +3639,16 @@
       <c r="M90"/>
       <c r="N90"/>
       <c r="O90"/>
-      <c r="P90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -3863,19 +3680,16 @@
       <c r="O91" t="n">
         <v>0</v>
       </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3895,17 +3709,16 @@
       <c r="M92"/>
       <c r="N92"/>
       <c r="O92"/>
-      <c r="P92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -3937,19 +3750,16 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3969,61 +3779,57 @@
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
-      <c r="P94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>-37.0294</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3486</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.1843</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>-2.9482</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0376</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0349</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0362</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0261</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0214</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0.5632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -4043,17 +3849,16 @@
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
-      <c r="P96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -4085,19 +3890,16 @@
       <c r="O97" t="n">
         <v>0</v>
       </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4117,61 +3919,57 @@
       <c r="M98"/>
       <c r="N98"/>
       <c r="O98"/>
-      <c r="P98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>-0.928</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.9241</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.9754</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.9395</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.0183</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0364</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0.0113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4191,61 +3989,57 @@
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
-      <c r="P100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>4.3134</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>4.3316</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>2.1745</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.1326</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>2.1072</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>2.0846</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>2.0652</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>2.0448</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0228</v>
-      </c>
-      <c r="P101" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4265,17 +4059,16 @@
       <c r="M102"/>
       <c r="N102"/>
       <c r="O102"/>
-      <c r="P102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
@@ -4307,19 +4100,16 @@
       <c r="O103" t="n">
         <v>0</v>
       </c>
-      <c r="P103" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -4339,61 +4129,57 @@
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104"/>
-      <c r="P104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>-158.1846</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>-160.092</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-162.0224</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>-163.976</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>-165.9532</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>-167.9542</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>-169.9794</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>-172.029</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>-174.1033</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-176.2026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -4413,17 +4199,16 @@
       <c r="M106"/>
       <c r="N106"/>
       <c r="O106"/>
-      <c r="P106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
@@ -4455,19 +4240,16 @@
       <c r="O107" t="n">
         <v>0</v>
       </c>
-      <c r="P107" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" t="s">
         <v>45</v>
-      </c>
-      <c r="C108" t="s">
-        <v>46</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -4487,17 +4269,16 @@
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
-      <c r="P108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" t="s">
         <v>45</v>
-      </c>
-      <c r="C109" t="s">
-        <v>46</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
@@ -4529,19 +4310,16 @@
       <c r="O109" t="n">
         <v>0</v>
       </c>
-      <c r="P109" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
         <v>16</v>
       </c>
-      <c r="B110" t="s">
-        <v>17</v>
-      </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D110" t="n">
         <v>0.0158</v>
@@ -4561,17 +4339,16 @@
       <c r="M110"/>
       <c r="N110"/>
       <c r="O110"/>
-      <c r="P110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111"/>
       <c r="E111"/>
@@ -4603,19 +4380,16 @@
       <c r="O111" t="n">
         <v>0.0052</v>
       </c>
-      <c r="P111" t="n">
-        <v>0.0052</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D112" t="n">
         <v>268.7603</v>
@@ -4635,17 +4409,16 @@
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
-      <c r="P112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
         <v>19</v>
       </c>
-      <c r="B113" t="s">
-        <v>20</v>
-      </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
@@ -4677,19 +4450,16 @@
       <c r="O113" t="n">
         <v>284.262</v>
       </c>
-      <c r="P113" t="n">
-        <v>285.94</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D114" t="n">
         <v>0.0427</v>
@@ -4709,17 +4479,16 @@
       <c r="M114"/>
       <c r="N114"/>
       <c r="O114"/>
-      <c r="P114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D115"/>
       <c r="E115"/>
@@ -4751,19 +4520,16 @@
       <c r="O115" t="n">
         <v>-0.0068</v>
       </c>
-      <c r="P115" t="n">
-        <v>-0.018</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D116" t="n">
         <v>0.0215</v>
@@ -4783,17 +4549,16 @@
       <c r="M116"/>
       <c r="N116"/>
       <c r="O116"/>
-      <c r="P116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D117"/>
       <c r="E117"/>
@@ -4825,19 +4590,16 @@
       <c r="O117" t="n">
         <v>-0.3594</v>
       </c>
-      <c r="P117" t="n">
-        <v>-0.4944</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
         <v>-0.024</v>
@@ -4857,17 +4619,16 @@
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
-      <c r="P118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D119"/>
       <c r="E119"/>
@@ -4899,19 +4660,16 @@
       <c r="O119" t="n">
         <v>-0.0199</v>
       </c>
-      <c r="P119" t="n">
-        <v>-0.0021</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D120" t="n">
         <v>-0.2563</v>
@@ -4931,17 +4689,16 @@
       <c r="M120"/>
       <c r="N120"/>
       <c r="O120"/>
-      <c r="P120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D121"/>
       <c r="E121"/>
@@ -4973,19 +4730,16 @@
       <c r="O121" t="n">
         <v>0.0373</v>
       </c>
-      <c r="P121" t="n">
-        <v>0.0898</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D122" t="n">
         <v>-0.3402</v>
@@ -5005,17 +4759,16 @@
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122"/>
-      <c r="P122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D123"/>
       <c r="E123"/>
@@ -5047,19 +4800,16 @@
       <c r="O123" t="n">
         <v>0.0054</v>
       </c>
-      <c r="P123" t="n">
-        <v>0.0394</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D124" t="n">
         <v>-0.0224</v>
@@ -5079,17 +4829,16 @@
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
-      <c r="P124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D125"/>
       <c r="E125"/>
@@ -5121,19 +4870,16 @@
       <c r="O125" t="n">
         <v>-0.0657</v>
       </c>
-      <c r="P125" t="n">
-        <v>-0.058</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D126" t="n">
         <v>0.1231</v>
@@ -5153,17 +4899,16 @@
       <c r="M126"/>
       <c r="N126"/>
       <c r="O126"/>
-      <c r="P126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
@@ -5195,19 +4940,16 @@
       <c r="O127" t="n">
         <v>-0.0543</v>
       </c>
-      <c r="P127" t="n">
-        <v>-0.0522</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D128" t="n">
         <v>0.0102</v>
@@ -5227,17 +4969,16 @@
       <c r="M128"/>
       <c r="N128"/>
       <c r="O128"/>
-      <c r="P128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D129"/>
       <c r="E129"/>
@@ -5269,19 +5010,16 @@
       <c r="O129" t="n">
         <v>0.0055</v>
       </c>
-      <c r="P129" t="n">
-        <v>0.0054</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D130" t="n">
         <v>-0.1684</v>
@@ -5301,17 +5039,16 @@
       <c r="M130"/>
       <c r="N130"/>
       <c r="O130"/>
-      <c r="P130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D131"/>
       <c r="E131"/>
@@ -5343,19 +5080,16 @@
       <c r="O131" t="n">
         <v>-0.0117</v>
       </c>
-      <c r="P131" t="n">
-        <v>-0.0124</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D132" t="n">
         <v>0.3833</v>
@@ -5375,17 +5109,16 @@
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132"/>
-      <c r="P132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D133"/>
       <c r="E133"/>
@@ -5417,19 +5150,16 @@
       <c r="O133" t="n">
         <v>-0.1876</v>
       </c>
-      <c r="P133" t="n">
-        <v>-0.3333</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D134" t="n">
         <v>0.1724</v>
@@ -5449,17 +5179,16 @@
       <c r="M134"/>
       <c r="N134"/>
       <c r="O134"/>
-      <c r="P134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
@@ -5491,19 +5220,16 @@
       <c r="O135" t="n">
         <v>0</v>
       </c>
-      <c r="P135" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D136" t="n">
         <v>-2.2613</v>
@@ -5523,17 +5249,16 @@
       <c r="M136"/>
       <c r="N136"/>
       <c r="O136"/>
-      <c r="P136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D137"/>
       <c r="E137"/>
@@ -5565,19 +5290,16 @@
       <c r="O137" t="n">
         <v>-0.5157</v>
       </c>
-      <c r="P137" t="n">
-        <v>-1.0491</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D138" t="n">
         <v>22741</v>
@@ -5597,17 +5319,16 @@
       <c r="M138"/>
       <c r="N138"/>
       <c r="O138"/>
-      <c r="P138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D139"/>
       <c r="E139"/>
@@ -5639,19 +5360,16 @@
       <c r="O139" t="n">
         <v>26078.1</v>
       </c>
-      <c r="P139" t="n">
-        <v>26293.7</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D140" t="n">
         <v>0.5458</v>
@@ -5671,17 +5389,16 @@
       <c r="M140"/>
       <c r="N140"/>
       <c r="O140"/>
-      <c r="P140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D141"/>
       <c r="E141"/>
@@ -5713,19 +5430,16 @@
       <c r="O141" t="n">
         <v>-0.234</v>
       </c>
-      <c r="P141" t="n">
-        <v>-0.3744</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D142" t="n">
         <v>0.0048</v>
@@ -5745,17 +5459,16 @@
       <c r="M142"/>
       <c r="N142"/>
       <c r="O142"/>
-      <c r="P142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
@@ -5787,19 +5500,16 @@
       <c r="O143" t="n">
         <v>0.0049</v>
       </c>
-      <c r="P143" t="n">
-        <v>0.0048</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D144" t="n">
         <v>-1.0494</v>
@@ -5819,17 +5529,16 @@
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144"/>
-      <c r="P144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
@@ -5861,19 +5570,16 @@
       <c r="O145" t="n">
         <v>-0.0111</v>
       </c>
-      <c r="P145" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D146" t="n">
         <v>-0.2711</v>
@@ -5893,17 +5599,16 @@
       <c r="M146"/>
       <c r="N146"/>
       <c r="O146"/>
-      <c r="P146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -5935,19 +5640,16 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
-      <c r="P147" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D148" t="n">
         <v>-0.7397</v>
@@ -5967,17 +5669,16 @@
       <c r="M148"/>
       <c r="N148"/>
       <c r="O148"/>
-      <c r="P148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -6009,19 +5710,16 @@
       <c r="O149" t="n">
         <v>0.1999</v>
       </c>
-      <c r="P149" t="n">
-        <v>-0.2011</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D150" t="n">
         <v>-0.014</v>
@@ -6041,17 +5739,16 @@
       <c r="M150"/>
       <c r="N150"/>
       <c r="O150"/>
-      <c r="P150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D151"/>
       <c r="E151"/>
@@ -6083,19 +5780,16 @@
       <c r="O151" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="P151" t="n">
-        <v>-0.0013</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D152" t="n">
         <v>0.1964</v>
@@ -6115,17 +5809,16 @@
       <c r="M152"/>
       <c r="N152"/>
       <c r="O152"/>
-      <c r="P152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
@@ -6157,19 +5850,16 @@
       <c r="O153" t="n">
         <v>-0.0354</v>
       </c>
-      <c r="P153" t="n">
-        <v>-0.011</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D154" t="n">
         <v>-0.0802</v>
@@ -6189,17 +5879,16 @@
       <c r="M154"/>
       <c r="N154"/>
       <c r="O154"/>
-      <c r="P154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155"/>
       <c r="E155"/>
@@ -6231,19 +5920,16 @@
       <c r="O155" t="n">
         <v>-0.0041</v>
       </c>
-      <c r="P155" t="n">
-        <v>0.005</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D156" t="n">
         <v>0.0178</v>
@@ -6263,17 +5949,16 @@
       <c r="M156"/>
       <c r="N156"/>
       <c r="O156"/>
-      <c r="P156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D157"/>
       <c r="E157"/>
@@ -6305,19 +5990,16 @@
       <c r="O157" t="n">
         <v>0.0081</v>
       </c>
-      <c r="P157" t="n">
-        <v>0.0081</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D158" t="n">
         <v>155</v>
@@ -6337,17 +6019,16 @@
       <c r="M158"/>
       <c r="N158"/>
       <c r="O158"/>
-      <c r="P158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D159"/>
       <c r="E159"/>
@@ -6379,19 +6060,16 @@
       <c r="O159" t="n">
         <v>174.1033</v>
       </c>
-      <c r="P159" t="n">
-        <v>176.2026</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D160" t="n">
         <v>0.0069</v>
@@ -6411,17 +6089,16 @@
       <c r="M160"/>
       <c r="N160"/>
       <c r="O160"/>
-      <c r="P160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D161"/>
       <c r="E161"/>
@@ -6453,19 +6130,16 @@
       <c r="O161" t="n">
         <v>-0.0014</v>
       </c>
-      <c r="P161" t="n">
-        <v>-0.0045</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D162" t="n">
         <v>-0.2286</v>
@@ -6485,17 +6159,16 @@
       <c r="M162"/>
       <c r="N162"/>
       <c r="O162"/>
-      <c r="P162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D163"/>
       <c r="E163"/>
@@ -6527,9 +6200,6 @@
       <c r="O163" t="n">
         <v>-0.0011</v>
       </c>
-      <c r="P163" t="n">
-        <v>0.0007</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/04-2022/contributions-comparison-04-2022.xlsx
+++ b/results/04-2022/contributions-comparison-04-2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">2024 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 Q2</t>
   </si>
   <si>
     <t xml:space="preserve">historical</t>
@@ -530,16 +533,19 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>0.0158</v>
@@ -559,16 +565,17 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
+      <c r="P2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -600,16 +607,19 @@
       <c r="O3" t="n">
         <v>0.0052</v>
       </c>
+      <c r="P3" t="n">
+        <v>0.0052</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>268.7603</v>
@@ -629,16 +639,17 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
+      <c r="P4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -670,16 +681,19 @@
       <c r="O5" t="n">
         <v>284.262</v>
       </c>
+      <c r="P5" t="n">
+        <v>285.94</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>0.0427</v>
@@ -699,16 +713,17 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
+      <c r="P6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -740,16 +755,19 @@
       <c r="O7" t="n">
         <v>-0.0068</v>
       </c>
+      <c r="P7" t="n">
+        <v>-0.018</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
         <v>0.0215</v>
@@ -769,57 +787,61 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
+      <c r="P8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>-0.0195</v>
+        <v>-32.7491</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3299</v>
+        <v>-0.6459</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3325</v>
+        <v>-0.0175</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0741</v>
+        <v>3.1367</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1013</v>
+        <v>0.1041</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.5253</v>
+        <v>-0.3481</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.2696</v>
+        <v>-0.1137</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1041</v>
+        <v>0.0295</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3594</v>
+        <v>-0.2232</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>-0.024</v>
@@ -839,16 +861,17 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
+      <c r="P10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -880,16 +903,19 @@
       <c r="O11" t="n">
         <v>-0.0199</v>
       </c>
+      <c r="P11" t="n">
+        <v>-0.0021</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>-0.2563</v>
@@ -909,57 +935,61 @@
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
+      <c r="P12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>0.035</v>
+        <v>-5.3199</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0961</v>
+        <v>-5.1648</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0265</v>
+        <v>-5.1361</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0182</v>
+        <v>-5.1039</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1833</v>
+        <v>-0.0674</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1982</v>
+        <v>-0.1159</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1366</v>
+        <v>-0.0642</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0727</v>
+        <v>-0.0538</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0373</v>
+        <v>0.0026</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
         <v>-0.3402</v>
@@ -979,57 +1009,61 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
+      <c r="P14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>-0.3492</v>
+        <v>7.6763</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.6728</v>
+        <v>7.3901</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6135</v>
+        <v>3.513</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3932</v>
+        <v>3.5657</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.164</v>
+        <v>3.635</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0606</v>
+        <v>3.6718</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0279</v>
+        <v>3.6962</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0134</v>
+        <v>3.7056</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0054</v>
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
         <v>-0.0224</v>
@@ -1049,57 +1083,61 @@
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
+      <c r="P16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>0.0908</v>
+        <v>-0.0397</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001</v>
+        <v>-0.0535</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1887</v>
+        <v>-0.2059</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1233</v>
+        <v>-0.0634</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0615</v>
+        <v>-0.0283</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.051</v>
+        <v>-0.0343</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0227</v>
+        <v>-0.0217</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0328</v>
+        <v>-0.0319</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0657</v>
+        <v>-0.0647</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
         <v>0.1231</v>
@@ -1119,16 +1157,17 @@
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
+      <c r="P18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1160,16 +1199,19 @@
       <c r="O19" t="n">
         <v>-0.0543</v>
       </c>
+      <c r="P19" t="n">
+        <v>-0.0522</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
         <v>0.0102</v>
@@ -1189,16 +1231,17 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
+      <c r="P20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1230,16 +1273,19 @@
       <c r="O21" t="n">
         <v>0.0055</v>
       </c>
+      <c r="P21" t="n">
+        <v>0.0054</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
         <v>-0.1684</v>
@@ -1259,57 +1305,61 @@
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
+      <c r="P22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
         <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>-0.7896</v>
+        <v>-7.9542</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0738</v>
+        <v>-0.2532</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.9231</v>
+        <v>-1.0975</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.5551</v>
+        <v>-0.725</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1269</v>
+        <v>6.411</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0269</v>
+        <v>-0.177</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1978</v>
+        <v>0.0505</v>
       </c>
       <c r="N23" t="n">
-        <v>0.07</v>
+        <v>-0.0744</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0117</v>
+        <v>-0.0745</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
         <v>0.3833</v>
@@ -1329,57 +1379,61 @@
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
+      <c r="P24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>-0.1262</v>
+        <v>-0.2751</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.1489</v>
+        <v>-0.163</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.145</v>
+        <v>-0.1575</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0587</v>
+        <v>-0.0453</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0475</v>
+        <v>-0.0367</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6157</v>
+        <v>-0.6114</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6505</v>
+        <v>-0.6479</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3144</v>
+        <v>-0.3129</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1876</v>
+        <v>-0.1799</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.3304</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" t="n">
         <v>0.1724</v>
@@ -1399,57 +1453,61 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
+      <c r="P26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
         <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>-1</v>
+        <v>-1.0879</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.494</v>
+        <v>-1.48</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.0372</v>
+        <v>-1.0322</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4282</v>
+        <v>-0.4232</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.4163</v>
+        <v>-0.3904</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3179</v>
+        <v>-0.3008</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.1497</v>
+        <v>-0.1495</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0069</v>
+        <v>-0.0026</v>
       </c>
       <c r="O27" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="P27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="n">
         <v>-2.2613</v>
@@ -1469,57 +1527,61 @@
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
+      <c r="P28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>-2.1353</v>
+        <v>-73.9633</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.4856</v>
+        <v>1.934</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.2049</v>
+        <v>-3.6928</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.0618</v>
+        <v>-2.4016</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.0979</v>
+        <v>10.7529</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.0913</v>
+        <v>2.911</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.2189</v>
+        <v>4.7215</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.6377</v>
+        <v>5.198</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.5157</v>
+        <v>-0.3809</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.4953</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
         <v>22741</v>
@@ -1539,16 +1601,17 @@
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
+      <c r="P30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
         <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1580,16 +1643,19 @@
       <c r="O31" t="n">
         <v>26078.1</v>
       </c>
+      <c r="P31" t="n">
+        <v>26293.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
         <v>0.5458</v>
@@ -1609,57 +1675,61 @@
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
+      <c r="P32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
         <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>-0.0125</v>
+        <v>-6.3841</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1076</v>
+        <v>-0.7039</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0575</v>
+        <v>-0.0169</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1042</v>
+        <v>3.0568</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0911</v>
+        <v>0.1055</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3608</v>
+        <v>-0.3467</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.1266</v>
+        <v>-0.1123</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0416</v>
+        <v>-0.0284</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.234</v>
+        <v>-0.2212</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.3622</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" t="n">
         <v>0.0048</v>
@@ -1679,16 +1749,17 @@
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
+      <c r="P34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
         <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1720,16 +1791,19 @@
       <c r="O35" t="n">
         <v>0.0049</v>
       </c>
+      <c r="P35" t="n">
+        <v>0.0048</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
         <v>-1.0494</v>
@@ -1749,16 +1823,17 @@
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
+      <c r="P36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1790,16 +1865,19 @@
       <c r="O37" t="n">
         <v>-0.0111</v>
       </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" t="n">
         <v>-0.2711</v>
@@ -1819,16 +1897,17 @@
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
         <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1860,16 +1939,19 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" t="n">
         <v>-0.7397</v>
@@ -1889,57 +1971,61 @@
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
+      <c r="P40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
         <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>0.0734</v>
+        <v>-36.956</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3554</v>
+        <v>0.7039</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2012</v>
+        <v>0.0169</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.1085</v>
+        <v>-3.0568</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1431</v>
+        <v>-0.1055</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3118</v>
+        <v>0.3467</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0762</v>
+        <v>0.1123</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0023</v>
+        <v>0.0284</v>
       </c>
       <c r="O41" t="n">
-        <v>0.1999</v>
+        <v>0.2212</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.3622</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
         <v>-0.014</v>
@@ -1959,16 +2045,17 @@
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
+      <c r="P42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
         <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2000,16 +2087,19 @@
       <c r="O43" t="n">
         <v>-0.0041</v>
       </c>
+      <c r="P43" t="n">
+        <v>-0.0013</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
         <v>0.1964</v>
@@ -2029,57 +2119,61 @@
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
+      <c r="P44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
         <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>0.1796</v>
+        <v>-0.7484</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1017</v>
+        <v>-0.8223</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0151</v>
+        <v>-0.9602</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0302</v>
+        <v>-0.9093</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0065</v>
+        <v>-0.0249</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0311</v>
+        <v>-0.0241</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.078</v>
+        <v>0.012</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.0603</v>
+        <v>0.0017</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0354</v>
+        <v>0.001</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="n">
         <v>-0.0802</v>
@@ -2099,57 +2193,61 @@
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
+      <c r="P46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
         <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>-0.0509</v>
+        <v>4.2624</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.1049</v>
+        <v>4.2267</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.0801</v>
+        <v>2.0944</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0857</v>
+        <v>2.0469</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0572</v>
+        <v>2.05</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0228</v>
+        <v>2.0617</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0151</v>
+        <v>2.0501</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0017</v>
+        <v>2.0466</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.0041</v>
+        <v>0.0187</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
         <v>0.0178</v>
@@ -2169,16 +2267,17 @@
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
+      <c r="P48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
         <v>18</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2210,16 +2309,19 @@
       <c r="O49" t="n">
         <v>0.0081</v>
       </c>
+      <c r="P49" t="n">
+        <v>0.0081</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" t="n">
         <v>155</v>
@@ -2239,57 +2341,61 @@
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
+      <c r="P50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
         <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>158.1846</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>160.092</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>162.0224</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>163.976</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>165.9532</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>167.9542</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>169.9794</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>172.029</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>174.1033</v>
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" t="n">
         <v>0.0069</v>
@@ -2309,16 +2415,17 @@
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
+      <c r="P52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
         <v>18</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2350,16 +2457,19 @@
       <c r="O53" t="n">
         <v>-0.0014</v>
       </c>
+      <c r="P53" t="n">
+        <v>-0.0045</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="n">
         <v>-0.2286</v>
@@ -2379,16 +2489,17 @@
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
+      <c r="P54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
         <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2420,16 +2531,19 @@
       <c r="O55" t="n">
         <v>-0.0011</v>
       </c>
+      <c r="P55" t="n">
+        <v>0.0007</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2449,16 +2563,17 @@
       <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
+      <c r="P56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2490,16 +2605,19 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2519,16 +2637,17 @@
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
+      <c r="P58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -2560,16 +2679,19 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2589,16 +2711,17 @@
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
+      <c r="P60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -2630,16 +2753,19 @@
       <c r="O61" t="n">
         <v>0</v>
       </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2659,57 +2785,61 @@
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
+      <c r="P62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>-32.7296</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>-0.316</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>3.2108</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>0.2054</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.1772</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.1559</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>0.1336</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>0.1362</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.1303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2729,16 +2859,17 @@
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
+      <c r="P64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -2770,16 +2901,19 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2799,57 +2933,61 @@
       <c r="M66"/>
       <c r="N66"/>
       <c r="O66"/>
+      <c r="P66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>-5.355</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>-5.2609</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>-5.1625</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>-5.0857</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>0.1159</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.0823</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.0724</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>-0.0347</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.0874</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2869,57 +3007,61 @@
       <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
+      <c r="P68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>8.0255</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>8.0629</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>4.1265</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>3.9589</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>3.799</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>3.7324</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>3.6683</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>3.6922</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-0.0394</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -2939,57 +3081,61 @@
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
+      <c r="P70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>-0.1306</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>-0.0536</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>-0.0172</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.0599</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>0.0332</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>0.0009</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.0438</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3009,16 +3155,17 @@
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
+      <c r="P72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -3050,16 +3197,19 @@
       <c r="O73" t="n">
         <v>0</v>
       </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3079,16 +3229,17 @@
       <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
+      <c r="P74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -3120,16 +3271,19 @@
       <c r="O75" t="n">
         <v>0</v>
       </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3149,57 +3303,61 @@
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
+      <c r="P76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>-7.1645</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>-0.1794</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>-0.1744</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>-0.1699</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>6.538</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>-0.1501</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>-0.1472</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>-0.1444</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>-0.0628</v>
+      </c>
+      <c r="P77" t="n">
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3219,57 +3377,61 @@
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
+      <c r="P78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>-0.1489</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>-0.014</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>-0.0124</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>0.0078</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.0029</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -3289,57 +3451,61 @@
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
+      <c r="P80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>-0.0879</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.0051</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>0.0259</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>0.0043</v>
       </c>
       <c r="O81" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="P81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -3359,57 +3525,61 @@
       <c r="M82"/>
       <c r="N82"/>
       <c r="O82"/>
+      <c r="P82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>-71.828</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>5.4196</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>-0.4878</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>-0.3398</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>12.8508</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>6.0023</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>5.9404</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>5.8358</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.1348</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.5537</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3429,16 +3599,17 @@
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
+      <c r="P84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -3470,16 +3641,19 @@
       <c r="O85" t="n">
         <v>0</v>
       </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -3499,57 +3673,61 @@
       <c r="M86"/>
       <c r="N86"/>
       <c r="O86"/>
+      <c r="P86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>-6.3716</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>-0.5963</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.0406</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2.9525</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>0.0141</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.0133</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>0.0128</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3569,16 +3747,17 @@
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88"/>
+      <c r="P88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -3610,16 +3789,19 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3639,16 +3821,17 @@
       <c r="M90"/>
       <c r="N90"/>
       <c r="O90"/>
+      <c r="P90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -3680,16 +3863,19 @@
       <c r="O91" t="n">
         <v>0</v>
       </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3709,16 +3895,17 @@
       <c r="M92"/>
       <c r="N92"/>
       <c r="O92"/>
+      <c r="P92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -3750,16 +3937,19 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3779,57 +3969,61 @@
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
+      <c r="P94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>-37.0294</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>0.3486</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>-0.1843</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>-2.9482</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.0349</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.0362</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>0.0261</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>0.0214</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.5632</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3849,16 +4043,17 @@
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
+      <c r="P96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -3890,16 +4085,19 @@
       <c r="O97" t="n">
         <v>0</v>
       </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -3919,57 +4117,61 @@
       <c r="M98"/>
       <c r="N98"/>
       <c r="O98"/>
+      <c r="P98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>-0.928</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>-0.9241</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>-0.9754</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>-0.9395</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>-0.0183</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>0.0364</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.0113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -3989,57 +4191,61 @@
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
+      <c r="P100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>4.3134</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>4.3316</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2.1745</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>2.1326</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>2.1072</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>2.0846</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>2.0652</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>2.0448</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>0.0228</v>
+      </c>
+      <c r="P101" t="n">
+        <v>-0.005</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4059,16 +4265,17 @@
       <c r="M102"/>
       <c r="N102"/>
       <c r="O102"/>
+      <c r="P102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
@@ -4100,16 +4307,19 @@
       <c r="O103" t="n">
         <v>0</v>
       </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -4129,57 +4339,61 @@
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104"/>
+      <c r="P104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>-158.1846</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>-160.092</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>-162.0224</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>-163.976</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-165.9532</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>-167.9542</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>-169.9794</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>-172.029</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>-174.1033</v>
+      </c>
+      <c r="P105" t="n">
+        <v>-176.2026</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -4199,16 +4413,17 @@
       <c r="M106"/>
       <c r="N106"/>
       <c r="O106"/>
+      <c r="P106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
@@ -4240,16 +4455,19 @@
       <c r="O107" t="n">
         <v>0</v>
       </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -4269,16 +4487,17 @@
       <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
+      <c r="P108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
@@ -4310,16 +4529,19 @@
       <c r="O109" t="n">
         <v>0</v>
       </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D110" t="n">
         <v>0.0158</v>
@@ -4339,16 +4561,17 @@
       <c r="M110"/>
       <c r="N110"/>
       <c r="O110"/>
+      <c r="P110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D111"/>
       <c r="E111"/>
@@ -4380,16 +4603,19 @@
       <c r="O111" t="n">
         <v>0.0052</v>
       </c>
+      <c r="P111" t="n">
+        <v>0.0052</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D112" t="n">
         <v>268.7603</v>
@@ -4409,16 +4635,17 @@
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
+      <c r="P112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
@@ -4450,16 +4677,19 @@
       <c r="O113" t="n">
         <v>284.262</v>
       </c>
+      <c r="P113" t="n">
+        <v>285.94</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D114" t="n">
         <v>0.0427</v>
@@ -4479,16 +4709,17 @@
       <c r="M114"/>
       <c r="N114"/>
       <c r="O114"/>
+      <c r="P114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D115"/>
       <c r="E115"/>
@@ -4520,16 +4751,19 @@
       <c r="O115" t="n">
         <v>-0.0068</v>
       </c>
+      <c r="P115" t="n">
+        <v>-0.018</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D116" t="n">
         <v>0.0215</v>
@@ -4549,16 +4783,17 @@
       <c r="M116"/>
       <c r="N116"/>
       <c r="O116"/>
+      <c r="P116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D117"/>
       <c r="E117"/>
@@ -4590,16 +4825,19 @@
       <c r="O117" t="n">
         <v>-0.3594</v>
       </c>
+      <c r="P117" t="n">
+        <v>-0.4944</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D118" t="n">
         <v>-0.024</v>
@@ -4619,16 +4857,17 @@
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
+      <c r="P118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D119"/>
       <c r="E119"/>
@@ -4660,16 +4899,19 @@
       <c r="O119" t="n">
         <v>-0.0199</v>
       </c>
+      <c r="P119" t="n">
+        <v>-0.0021</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D120" t="n">
         <v>-0.2563</v>
@@ -4689,16 +4931,17 @@
       <c r="M120"/>
       <c r="N120"/>
       <c r="O120"/>
+      <c r="P120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D121"/>
       <c r="E121"/>
@@ -4730,16 +4973,19 @@
       <c r="O121" t="n">
         <v>0.0373</v>
       </c>
+      <c r="P121" t="n">
+        <v>0.0898</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D122" t="n">
         <v>-0.3402</v>
@@ -4759,16 +5005,17 @@
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122"/>
+      <c r="P122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D123"/>
       <c r="E123"/>
@@ -4800,16 +5047,19 @@
       <c r="O123" t="n">
         <v>0.0054</v>
       </c>
+      <c r="P123" t="n">
+        <v>0.0394</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D124" t="n">
         <v>-0.0224</v>
@@ -4829,16 +5079,17 @@
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
+      <c r="P124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D125"/>
       <c r="E125"/>
@@ -4870,16 +5121,19 @@
       <c r="O125" t="n">
         <v>-0.0657</v>
       </c>
+      <c r="P125" t="n">
+        <v>-0.058</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D126" t="n">
         <v>0.1231</v>
@@ -4899,16 +5153,17 @@
       <c r="M126"/>
       <c r="N126"/>
       <c r="O126"/>
+      <c r="P126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D127"/>
       <c r="E127"/>
@@ -4940,16 +5195,19 @@
       <c r="O127" t="n">
         <v>-0.0543</v>
       </c>
+      <c r="P127" t="n">
+        <v>-0.0522</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D128" t="n">
         <v>0.0102</v>
@@ -4969,16 +5227,17 @@
       <c r="M128"/>
       <c r="N128"/>
       <c r="O128"/>
+      <c r="P128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D129"/>
       <c r="E129"/>
@@ -5010,16 +5269,19 @@
       <c r="O129" t="n">
         <v>0.0055</v>
       </c>
+      <c r="P129" t="n">
+        <v>0.0054</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D130" t="n">
         <v>-0.1684</v>
@@ -5039,16 +5301,17 @@
       <c r="M130"/>
       <c r="N130"/>
       <c r="O130"/>
+      <c r="P130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D131"/>
       <c r="E131"/>
@@ -5080,16 +5343,19 @@
       <c r="O131" t="n">
         <v>-0.0117</v>
       </c>
+      <c r="P131" t="n">
+        <v>-0.0124</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D132" t="n">
         <v>0.3833</v>
@@ -5109,16 +5375,17 @@
       <c r="M132"/>
       <c r="N132"/>
       <c r="O132"/>
+      <c r="P132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D133"/>
       <c r="E133"/>
@@ -5150,16 +5417,19 @@
       <c r="O133" t="n">
         <v>-0.1876</v>
       </c>
+      <c r="P133" t="n">
+        <v>-0.3333</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D134" t="n">
         <v>0.1724</v>
@@ -5179,16 +5449,17 @@
       <c r="M134"/>
       <c r="N134"/>
       <c r="O134"/>
+      <c r="P134"/>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
@@ -5220,16 +5491,19 @@
       <c r="O135" t="n">
         <v>0</v>
       </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D136" t="n">
         <v>-2.2613</v>
@@ -5249,16 +5523,17 @@
       <c r="M136"/>
       <c r="N136"/>
       <c r="O136"/>
+      <c r="P136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D137"/>
       <c r="E137"/>
@@ -5290,16 +5565,19 @@
       <c r="O137" t="n">
         <v>-0.5157</v>
       </c>
+      <c r="P137" t="n">
+        <v>-1.0491</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D138" t="n">
         <v>22741</v>
@@ -5319,16 +5597,17 @@
       <c r="M138"/>
       <c r="N138"/>
       <c r="O138"/>
+      <c r="P138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D139"/>
       <c r="E139"/>
@@ -5360,16 +5639,19 @@
       <c r="O139" t="n">
         <v>26078.1</v>
       </c>
+      <c r="P139" t="n">
+        <v>26293.7</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D140" t="n">
         <v>0.5458</v>
@@ -5389,16 +5671,17 @@
       <c r="M140"/>
       <c r="N140"/>
       <c r="O140"/>
+      <c r="P140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D141"/>
       <c r="E141"/>
@@ -5430,16 +5713,19 @@
       <c r="O141" t="n">
         <v>-0.234</v>
       </c>
+      <c r="P141" t="n">
+        <v>-0.3744</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D142" t="n">
         <v>0.0048</v>
@@ -5459,16 +5745,17 @@
       <c r="M142"/>
       <c r="N142"/>
       <c r="O142"/>
+      <c r="P142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
@@ -5500,16 +5787,19 @@
       <c r="O143" t="n">
         <v>0.0049</v>
       </c>
+      <c r="P143" t="n">
+        <v>0.0048</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D144" t="n">
         <v>-1.0494</v>
@@ -5529,16 +5819,17 @@
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144"/>
+      <c r="P144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
@@ -5570,16 +5861,19 @@
       <c r="O145" t="n">
         <v>-0.0111</v>
       </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D146" t="n">
         <v>-0.2711</v>
@@ -5599,16 +5893,17 @@
       <c r="M146"/>
       <c r="N146"/>
       <c r="O146"/>
+      <c r="P146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -5640,16 +5935,19 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D148" t="n">
         <v>-0.7397</v>
@@ -5669,16 +5967,17 @@
       <c r="M148"/>
       <c r="N148"/>
       <c r="O148"/>
+      <c r="P148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -5710,16 +6009,19 @@
       <c r="O149" t="n">
         <v>0.1999</v>
       </c>
+      <c r="P149" t="n">
+        <v>-0.2011</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D150" t="n">
         <v>-0.014</v>
@@ -5739,16 +6041,17 @@
       <c r="M150"/>
       <c r="N150"/>
       <c r="O150"/>
+      <c r="P150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D151"/>
       <c r="E151"/>
@@ -5780,16 +6083,19 @@
       <c r="O151" t="n">
         <v>-0.0041</v>
       </c>
+      <c r="P151" t="n">
+        <v>-0.0013</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D152" t="n">
         <v>0.1964</v>
@@ -5809,16 +6115,17 @@
       <c r="M152"/>
       <c r="N152"/>
       <c r="O152"/>
+      <c r="P152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
@@ -5850,16 +6157,19 @@
       <c r="O153" t="n">
         <v>-0.0354</v>
       </c>
+      <c r="P153" t="n">
+        <v>-0.011</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D154" t="n">
         <v>-0.0802</v>
@@ -5879,16 +6189,17 @@
       <c r="M154"/>
       <c r="N154"/>
       <c r="O154"/>
+      <c r="P154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D155"/>
       <c r="E155"/>
@@ -5920,16 +6231,19 @@
       <c r="O155" t="n">
         <v>-0.0041</v>
       </c>
+      <c r="P155" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D156" t="n">
         <v>0.0178</v>
@@ -5949,16 +6263,17 @@
       <c r="M156"/>
       <c r="N156"/>
       <c r="O156"/>
+      <c r="P156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D157"/>
       <c r="E157"/>
@@ -5990,16 +6305,19 @@
       <c r="O157" t="n">
         <v>0.0081</v>
       </c>
+      <c r="P157" t="n">
+        <v>0.0081</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D158" t="n">
         <v>155</v>
@@ -6019,16 +6337,17 @@
       <c r="M158"/>
       <c r="N158"/>
       <c r="O158"/>
+      <c r="P158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D159"/>
       <c r="E159"/>
@@ -6060,16 +6379,19 @@
       <c r="O159" t="n">
         <v>174.1033</v>
       </c>
+      <c r="P159" t="n">
+        <v>176.2026</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D160" t="n">
         <v>0.0069</v>
@@ -6089,16 +6411,17 @@
       <c r="M160"/>
       <c r="N160"/>
       <c r="O160"/>
+      <c r="P160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D161"/>
       <c r="E161"/>
@@ -6130,16 +6453,19 @@
       <c r="O161" t="n">
         <v>-0.0014</v>
       </c>
+      <c r="P161" t="n">
+        <v>-0.0045</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D162" t="n">
         <v>-0.2286</v>
@@ -6159,16 +6485,17 @@
       <c r="M162"/>
       <c r="N162"/>
       <c r="O162"/>
+      <c r="P162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D163"/>
       <c r="E163"/>
@@ -6200,6 +6527,9 @@
       <c r="O163" t="n">
         <v>-0.0011</v>
       </c>
+      <c r="P163" t="n">
+        <v>0.0007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/04-2022/contributions-comparison-04-2022.xlsx
+++ b/results/04-2022/contributions-comparison-04-2022.xlsx
@@ -581,34 +581,34 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.0046</v>
+        <v>0.0171</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0051</v>
+        <v>0.0147</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0051</v>
+        <v>0.0123</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0051</v>
+        <v>0.0099</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0052</v>
+        <v>0.0099</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0052</v>
+        <v>0.0086</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0052</v>
+        <v>0.0074</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0052</v>
+        <v>0.0074</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0052</v>
+        <v>0.0074</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0052</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="4">
@@ -655,7 +655,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>271.441</v>
+        <v>284.6077</v>
       </c>
       <c r="H5" t="n">
         <v>273.2</v>
@@ -729,34 +729,34 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>-0.0339</v>
+        <v>-0.0348</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0277</v>
+        <v>0.0258</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0269</v>
+        <v>0.0254</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0366</v>
+        <v>-0.0381</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0359</v>
+        <v>-0.0371</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003</v>
+        <v>-0.0008</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002</v>
+        <v>-0.0008</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0069</v>
+        <v>-0.0079</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0078</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.018</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="8">
@@ -773,10 +773,10 @@
         <v>0.0215</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0798</v>
+        <v>-0.5195</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0285</v>
+        <v>-0.0178</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -803,34 +803,34 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>-32.7491</v>
+        <v>-0.1503</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6459</v>
+        <v>-0.2238</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0175</v>
+        <v>-0.1907</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1367</v>
+        <v>-0.2226</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1041</v>
+        <v>-0.2546</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3481</v>
+        <v>-0.2876</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1137</v>
+        <v>-0.3058</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0295</v>
+        <v>-0.2194</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.2232</v>
+        <v>-1.7597</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.3641</v>
+        <v>-0.558</v>
       </c>
     </row>
     <row r="10">
@@ -877,34 +877,34 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>-0.0221</v>
+        <v>-0.0201</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0195</v>
+        <v>-0.0159</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0274</v>
+        <v>-0.0228</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0197</v>
+        <v>-0.0145</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0601</v>
+        <v>-0.0541</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0646</v>
+        <v>-0.0581</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0475</v>
+        <v>-0.0408</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0352</v>
+        <v>-0.0281</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0199</v>
+        <v>-0.0124</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0021</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="12">
@@ -951,34 +951,34 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>-5.3199</v>
+        <v>0.0636</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.1648</v>
+        <v>0.0415</v>
       </c>
       <c r="I13" t="n">
-        <v>-5.1361</v>
+        <v>-0.0141</v>
       </c>
       <c r="J13" t="n">
-        <v>-5.1039</v>
+        <v>-0.0841</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0674</v>
+        <v>-0.3014</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1159</v>
+        <v>-0.2546</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0642</v>
+        <v>-0.2169</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0538</v>
+        <v>-0.1914</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0026</v>
+        <v>-0.067</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0024</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="14">
@@ -1025,34 +1025,34 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>7.6763</v>
+        <v>-0.2122</v>
       </c>
       <c r="H15" t="n">
-        <v>7.3901</v>
+        <v>-0.4548</v>
       </c>
       <c r="I15" t="n">
-        <v>3.513</v>
+        <v>-0.4093</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5657</v>
+        <v>-0.1929</v>
       </c>
       <c r="K15" t="n">
-        <v>3.635</v>
+        <v>0.041</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6718</v>
+        <v>0.1502</v>
       </c>
       <c r="M15" t="n">
-        <v>3.6962</v>
+        <v>0.2351</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7056</v>
+        <v>0.2242</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.1616</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="16">
@@ -1099,34 +1099,34 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>-0.0397</v>
+        <v>0.0831</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0535</v>
+        <v>-0.0017</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2059</v>
+        <v>-0.1921</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0634</v>
+        <v>-0.1241</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0283</v>
+        <v>-0.0635</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0343</v>
+        <v>-0.0528</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0217</v>
+        <v>-0.0243</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0319</v>
+        <v>-0.0345</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0647</v>
+        <v>-0.0673</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0142</v>
+        <v>-0.0571</v>
       </c>
     </row>
     <row r="18">
@@ -1173,34 +1173,34 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>0.1303</v>
+        <v>0.1281</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0912</v>
+        <v>0.087</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0551</v>
+        <v>0.0507</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0917</v>
+        <v>-0.0964</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0805</v>
+        <v>-0.0845</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0958</v>
+        <v>-0.0989</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0957</v>
+        <v>-0.098</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0847</v>
+        <v>-0.0865</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0543</v>
+        <v>-0.0555</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0522</v>
+        <v>-0.0529</v>
       </c>
     </row>
     <row r="20">
@@ -1247,34 +1247,34 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>0.0048</v>
+        <v>0.0172</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0044</v>
+        <v>0.0147</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0049</v>
+        <v>0.0123</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.0099</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0051</v>
+        <v>0.0099</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0051</v>
+        <v>0.0086</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0054</v>
+        <v>0.0074</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0054</v>
+        <v>0.0074</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0055</v>
+        <v>0.0074</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0054</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="22">
@@ -1321,34 +1321,34 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>-7.9542</v>
+        <v>-0.7867</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2532</v>
+        <v>-0.2136</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.0975</v>
+        <v>-1.1107</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.725</v>
+        <v>-0.771</v>
       </c>
       <c r="K23" t="n">
-        <v>6.411</v>
+        <v>-0.3653</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.177</v>
+        <v>-0.148</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0505</v>
+        <v>0.109</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0744</v>
+        <v>-0.0033</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0745</v>
+        <v>-0.0739</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.074</v>
+        <v>-0.0585</v>
       </c>
     </row>
     <row r="24">
@@ -1395,34 +1395,34 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>-0.2751</v>
+        <v>-0.0666</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.163</v>
+        <v>-0.1963</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1575</v>
+        <v>-0.1821</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0453</v>
+        <v>-0.0685</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0367</v>
+        <v>-0.0567</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6114</v>
+        <v>-0.6219</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6479</v>
+        <v>-0.658</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3129</v>
+        <v>-0.323</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.1799</v>
+        <v>-0.1988</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.3304</v>
+        <v>-0.3401</v>
       </c>
     </row>
     <row r="26">
@@ -1469,34 +1469,34 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>-1.0879</v>
+        <v>-0.9921</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.48</v>
+        <v>-1.473</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.0322</v>
+        <v>-1.0289</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4232</v>
+        <v>-0.4205</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.3904</v>
+        <v>-0.4112</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3008</v>
+        <v>-0.315</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.1495</v>
+        <v>-0.1473</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0049</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0165</v>
+        <v>0.0006</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="28">
@@ -1543,34 +1543,34 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>-73.9633</v>
+        <v>-2.9551</v>
       </c>
       <c r="H29" t="n">
-        <v>1.934</v>
+        <v>-3.7035</v>
       </c>
       <c r="I29" t="n">
-        <v>-3.6928</v>
+        <v>-3.2729</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.4016</v>
+        <v>-2.096</v>
       </c>
       <c r="K29" t="n">
-        <v>10.7529</v>
+        <v>-1.9671</v>
       </c>
       <c r="L29" t="n">
-        <v>2.911</v>
+        <v>-3.052</v>
       </c>
       <c r="M29" t="n">
-        <v>4.7215</v>
+        <v>-1.131</v>
       </c>
       <c r="N29" t="n">
-        <v>5.198</v>
+        <v>-0.6258</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.3809</v>
+        <v>-1.8299</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.4953</v>
+        <v>-1.1395</v>
       </c>
     </row>
     <row r="30">
@@ -1617,7 +1617,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>24188</v>
+        <v>24382.7</v>
       </c>
       <c r="H31" t="n">
         <v>24520.4</v>
@@ -1661,10 +1661,10 @@
         <v>0.5458</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4181</v>
+        <v>-0.0216</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4121</v>
+        <v>0.4228</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
@@ -1691,34 +1691,34 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>-6.3841</v>
+        <v>0.3908</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.7039</v>
+        <v>-0.1272</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0169</v>
+        <v>-0.0499</v>
       </c>
       <c r="J33" t="n">
-        <v>3.0568</v>
+        <v>-0.0748</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1055</v>
+        <v>-0.2513</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3467</v>
+        <v>-0.0846</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.1123</v>
+        <v>-0.1609</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0284</v>
+        <v>-0.155</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.2212</v>
+        <v>-0.305</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.3622</v>
+        <v>-0.4193</v>
       </c>
     </row>
     <row r="34">
@@ -1839,31 +1839,31 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>-0.033</v>
+        <v>-0.0334</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0232</v>
+        <v>-0.0233</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0345</v>
+        <v>-0.0348</v>
       </c>
       <c r="J37" t="n">
+        <v>-0.0227</v>
+      </c>
+      <c r="K37" t="n">
         <v>-0.0225</v>
       </c>
-      <c r="K37" t="n">
-        <v>-0.0223</v>
-      </c>
       <c r="L37" t="n">
-        <v>-1.0897</v>
+        <v>-1.0899</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.0111</v>
+        <v>-0.0112</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-0.063</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.0288</v>
+        <v>-1.0206</v>
       </c>
       <c r="I39" t="n">
         <v>-0.031</v>
@@ -1957,10 +1957,10 @@
         <v>-0.7397</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.1059</v>
+        <v>0.3339</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.8145</v>
+        <v>-0.8252</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -1987,34 +1987,34 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>-36.956</v>
+        <v>-0.7018</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7039</v>
+        <v>0.1004</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0169</v>
+        <v>0.0765</v>
       </c>
       <c r="J41" t="n">
-        <v>-3.0568</v>
+        <v>0.1057</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1055</v>
+        <v>0.2345</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3467</v>
+        <v>0.0702</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1123</v>
+        <v>0.1488</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0284</v>
+        <v>0.0909</v>
       </c>
       <c r="O41" t="n">
-        <v>0.2212</v>
+        <v>0.2451</v>
       </c>
       <c r="P41" t="n">
-        <v>0.3622</v>
+        <v>-0.2685</v>
       </c>
     </row>
     <row r="42">
@@ -2061,34 +2061,34 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>-0.0163</v>
+        <v>-0.0141</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0171</v>
+        <v>-0.0143</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0163</v>
+        <v>-0.0132</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.0158</v>
+        <v>-0.0125</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0177</v>
+        <v>-0.0142</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0185</v>
+        <v>-0.0148</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0097</v>
+        <v>-0.0059</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.008</v>
+        <v>-0.0042</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.0041</v>
+        <v>-0.0002</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.0013</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="44">
@@ -2135,34 +2135,34 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>-0.7484</v>
+        <v>0.1111</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.8223</v>
+        <v>0.0898</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.9602</v>
+        <v>-0.002</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.9093</v>
+        <v>0.0085</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0249</v>
+        <v>0.033</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0241</v>
+        <v>-0.0495</v>
       </c>
       <c r="M45" t="n">
-        <v>0.012</v>
+        <v>-0.0925</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0017</v>
+        <v>-0.0721</v>
       </c>
       <c r="O45" t="n">
-        <v>0.001</v>
+        <v>-0.0445</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0003</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="46">
@@ -2209,34 +2209,34 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>4.2624</v>
+        <v>-0.1011</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2267</v>
+        <v>-0.1516</v>
       </c>
       <c r="I47" t="n">
-        <v>2.0944</v>
+        <v>-0.0713</v>
       </c>
       <c r="J47" t="n">
-        <v>2.0469</v>
+        <v>-0.0569</v>
       </c>
       <c r="K47" t="n">
-        <v>2.05</v>
+        <v>-0.0233</v>
       </c>
       <c r="L47" t="n">
-        <v>2.0617</v>
+        <v>0.0159</v>
       </c>
       <c r="M47" t="n">
-        <v>2.0501</v>
+        <v>0.0229</v>
       </c>
       <c r="N47" t="n">
-        <v>2.0466</v>
+        <v>0.0417</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0187</v>
+        <v>0.0641</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.0715</v>
       </c>
     </row>
     <row r="48">
@@ -2283,34 +2283,34 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>0.008</v>
+        <v>0.0249</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0084</v>
+        <v>0.0194</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0085</v>
+        <v>0.0171</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0084</v>
+        <v>0.0159</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0083</v>
+        <v>0.0147</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0083</v>
+        <v>0.0135</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0084</v>
+        <v>0.0123</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0082</v>
+        <v>0.0123</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0081</v>
+        <v>0.0111</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0081</v>
+        <v>0.0099</v>
       </c>
     </row>
     <row r="50">
@@ -2357,34 +2357,34 @@
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>157.2</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>159.0955</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>161.0138</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>162.9553</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>164.9202</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>166.9088</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>168.9214</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>170.9582</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>173.0196</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>175.1058</v>
       </c>
     </row>
     <row r="52">
@@ -2431,16 +2431,16 @@
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="H53" t="n">
         <v>-0.001</v>
       </c>
-      <c r="H53" t="n">
-        <v>-0.0009</v>
-      </c>
       <c r="I53" t="n">
-        <v>-0.0005</v>
+        <v>-0.0006</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0005</v>
+        <v>-0.0006</v>
       </c>
       <c r="K53" t="n">
         <v>-0.0006</v>
@@ -2455,10 +2455,10 @@
         <v>-0.0005</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.0014</v>
+        <v>-0.0015</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.0045</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="54">
@@ -2505,34 +2505,34 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>-0.1145</v>
+        <v>-0.1281</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.2285</v>
+        <v>-0.2264</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.0842</v>
+        <v>-0.0856</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.0435</v>
+        <v>-0.045</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0372</v>
+        <v>-0.0356</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0258</v>
+        <v>-0.0252</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0145</v>
+        <v>-0.0161</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.0028</v>
+        <v>-0.0036</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.0011</v>
+        <v>0.0002</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0007</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="56">
@@ -2579,34 +2579,34 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.0096</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="58">
@@ -2653,7 +2653,7 @@
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>13.1667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2727,34 +2727,34 @@
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="62">
@@ -2771,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>-0.4397</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -2801,34 +2801,34 @@
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>-32.7296</v>
+        <v>-0.1308</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.316</v>
+        <v>0.1061</v>
       </c>
       <c r="I63" t="n">
-        <v>0.315</v>
+        <v>0.1417</v>
       </c>
       <c r="J63" t="n">
-        <v>3.2108</v>
+        <v>-0.1485</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2054</v>
+        <v>-0.1533</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1772</v>
+        <v>0.2377</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1559</v>
+        <v>-0.0362</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1336</v>
+        <v>-0.1153</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1362</v>
+        <v>-1.4003</v>
       </c>
       <c r="P63" t="n">
-        <v>0.1303</v>
+        <v>-0.0636</v>
       </c>
     </row>
     <row r="64">
@@ -2875,34 +2875,34 @@
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.0052</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="66">
@@ -2949,34 +2949,34 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>-5.355</v>
+        <v>0.0286</v>
       </c>
       <c r="H67" t="n">
-        <v>-5.2609</v>
+        <v>-0.0546</v>
       </c>
       <c r="I67" t="n">
-        <v>-5.1625</v>
+        <v>-0.0406</v>
       </c>
       <c r="J67" t="n">
-        <v>-5.0857</v>
+        <v>-0.066</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1159</v>
+        <v>-0.118</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0823</v>
+        <v>-0.0564</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0724</v>
+        <v>-0.0803</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0189</v>
+        <v>-0.1187</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.0347</v>
+        <v>-0.1043</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.0874</v>
+        <v>-0.0903</v>
       </c>
     </row>
     <row r="68">
@@ -3023,34 +3023,34 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>8.0255</v>
+        <v>0.1369</v>
       </c>
       <c r="H69" t="n">
-        <v>8.0629</v>
+        <v>0.218</v>
       </c>
       <c r="I69" t="n">
-        <v>4.1265</v>
+        <v>0.2042</v>
       </c>
       <c r="J69" t="n">
-        <v>3.9589</v>
+        <v>0.2003</v>
       </c>
       <c r="K69" t="n">
-        <v>3.799</v>
+        <v>0.2049</v>
       </c>
       <c r="L69" t="n">
-        <v>3.7324</v>
+        <v>0.2108</v>
       </c>
       <c r="M69" t="n">
-        <v>3.6683</v>
+        <v>0.2071</v>
       </c>
       <c r="N69" t="n">
-        <v>3.6922</v>
+        <v>0.2108</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0054</v>
+        <v>0.1562</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0394</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="70">
@@ -3097,34 +3097,34 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>-0.1306</v>
+        <v>-0.0077</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0536</v>
+        <v>-0.0018</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.0172</v>
+        <v>-0.0035</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0599</v>
+        <v>-0.0008</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0332</v>
+        <v>-0.002</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0167</v>
+        <v>-0.0018</v>
       </c>
       <c r="M71" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="P71" t="n">
         <v>0.0009</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.0438</v>
       </c>
     </row>
     <row r="72">
@@ -3171,34 +3171,34 @@
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>-0.0042</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>-0.0044</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>-0.0047</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="74">
@@ -3245,34 +3245,34 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.0047</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.0035</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="76">
@@ -3319,34 +3319,34 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>-7.1645</v>
+        <v>0.0029</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.1794</v>
+        <v>-0.1398</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1744</v>
+        <v>-0.1876</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.1699</v>
+        <v>-0.2159</v>
       </c>
       <c r="K77" t="n">
-        <v>6.538</v>
+        <v>-0.2384</v>
       </c>
       <c r="L77" t="n">
-        <v>-0.1501</v>
+        <v>-0.1211</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.1472</v>
+        <v>-0.0888</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.1444</v>
+        <v>-0.0733</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.0628</v>
+        <v>-0.0622</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.0616</v>
+        <v>-0.0461</v>
       </c>
     </row>
     <row r="78">
@@ -3393,34 +3393,34 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>-0.1489</v>
+        <v>0.0597</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.014</v>
+        <v>-0.0473</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.0124</v>
+        <v>-0.0371</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0134</v>
+        <v>-0.0098</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0109</v>
+        <v>-0.0091</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0042</v>
+        <v>-0.0062</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0026</v>
+        <v>-0.0075</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0015</v>
+        <v>-0.0086</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0078</v>
+        <v>-0.0112</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0029</v>
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="80">
@@ -3467,34 +3467,34 @@
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>-0.0879</v>
+        <v>0.0079</v>
       </c>
       <c r="H81" t="n">
-        <v>0.014</v>
+        <v>0.0209</v>
       </c>
       <c r="I81" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.0051</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.0259</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.0171</v>
+        <v>0.0029</v>
       </c>
       <c r="M81" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="P81" t="n">
         <v>0.0002</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3541,34 +3541,34 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>-71.828</v>
+        <v>-0.8199</v>
       </c>
       <c r="H83" t="n">
-        <v>5.4196</v>
+        <v>-0.2178</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.4878</v>
+        <v>-0.068</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.3398</v>
+        <v>-0.0341</v>
       </c>
       <c r="K83" t="n">
-        <v>12.8508</v>
+        <v>0.1308</v>
       </c>
       <c r="L83" t="n">
-        <v>6.0023</v>
+        <v>0.0393</v>
       </c>
       <c r="M83" t="n">
-        <v>5.9404</v>
+        <v>0.0878</v>
       </c>
       <c r="N83" t="n">
-        <v>5.8358</v>
+        <v>0.012</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1348</v>
+        <v>-1.3142</v>
       </c>
       <c r="P83" t="n">
-        <v>0.5537</v>
+        <v>-0.0905</v>
       </c>
     </row>
     <row r="84">
@@ -3615,7 +3615,7 @@
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>194.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3659,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.4397</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3689,34 +3689,34 @@
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>-6.3716</v>
+        <v>0.4033</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.5963</v>
+        <v>-0.0196</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0406</v>
+        <v>0.0077</v>
       </c>
       <c r="J87" t="n">
-        <v>2.9525</v>
+        <v>-0.1791</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0144</v>
+        <v>-0.3424</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0141</v>
+        <v>0.2763</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0143</v>
+        <v>-0.0343</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0133</v>
+        <v>-0.1134</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0128</v>
+        <v>-0.071</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0122</v>
+        <v>-0.0449</v>
       </c>
     </row>
     <row r="88">
@@ -3837,31 +3837,31 @@
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.0082</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>0.4397</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>-0.0107</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -3985,34 +3985,34 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>-37.0294</v>
+        <v>-0.7752</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3486</v>
+        <v>-0.2549</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.1843</v>
+        <v>-0.1247</v>
       </c>
       <c r="J95" t="n">
-        <v>-2.9482</v>
+        <v>0.2143</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0376</v>
+        <v>0.3776</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0349</v>
+        <v>-0.2416</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0362</v>
+        <v>0.0726</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0261</v>
+        <v>0.0886</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0214</v>
+        <v>0.0452</v>
       </c>
       <c r="P95" t="n">
-        <v>0.5632</v>
+        <v>-0.0674</v>
       </c>
     </row>
     <row r="96">
@@ -4059,34 +4059,34 @@
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="98">
@@ -4133,34 +4133,34 @@
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>-0.928</v>
+        <v>-0.0684</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.9241</v>
+        <v>-0.0119</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.9754</v>
+        <v>-0.0172</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.9395</v>
+        <v>-0.0217</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.0183</v>
+        <v>0.0395</v>
       </c>
       <c r="L99" t="n">
-        <v>0.007</v>
+        <v>-0.0185</v>
       </c>
       <c r="M99" t="n">
-        <v>0.09</v>
+        <v>-0.0145</v>
       </c>
       <c r="N99" t="n">
-        <v>0.062</v>
+        <v>-0.0118</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0364</v>
+        <v>-0.0091</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0113</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="100">
@@ -4207,34 +4207,34 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>4.3134</v>
+        <v>-0.0501</v>
       </c>
       <c r="H101" t="n">
-        <v>4.3316</v>
+        <v>-0.0467</v>
       </c>
       <c r="I101" t="n">
-        <v>2.1745</v>
+        <v>0.0088</v>
       </c>
       <c r="J101" t="n">
-        <v>2.1326</v>
+        <v>0.0288</v>
       </c>
       <c r="K101" t="n">
-        <v>2.1072</v>
+        <v>0.0339</v>
       </c>
       <c r="L101" t="n">
-        <v>2.0846</v>
+        <v>0.0387</v>
       </c>
       <c r="M101" t="n">
-        <v>2.0652</v>
+        <v>0.038</v>
       </c>
       <c r="N101" t="n">
-        <v>2.0448</v>
+        <v>0.04</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0228</v>
+        <v>0.0681</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.005</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="102">
@@ -4281,34 +4281,34 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>0.0086</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>0.0052</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="104">
@@ -4355,34 +4355,34 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>-158.1846</v>
+        <v>-0.9846</v>
       </c>
       <c r="H105" t="n">
-        <v>-160.092</v>
+        <v>-0.9965</v>
       </c>
       <c r="I105" t="n">
-        <v>-162.0224</v>
+        <v>-1.0085</v>
       </c>
       <c r="J105" t="n">
-        <v>-163.976</v>
+        <v>-1.0207</v>
       </c>
       <c r="K105" t="n">
-        <v>-165.9532</v>
+        <v>-1.033</v>
       </c>
       <c r="L105" t="n">
-        <v>-167.9542</v>
+        <v>-1.0455</v>
       </c>
       <c r="M105" t="n">
-        <v>-169.9794</v>
+        <v>-1.0581</v>
       </c>
       <c r="N105" t="n">
-        <v>-172.029</v>
+        <v>-1.0708</v>
       </c>
       <c r="O105" t="n">
-        <v>-174.1033</v>
+        <v>-1.0837</v>
       </c>
       <c r="P105" t="n">
-        <v>-176.2026</v>
+        <v>-1.0968</v>
       </c>
     </row>
     <row r="106">
@@ -4429,10 +4429,10 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4503,34 +4503,34 @@
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>-0.0137</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="110">
